--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Hspg2-Itga2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H2">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I2">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J2">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N2">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O2">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P2">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q2">
-        <v>600.0611128145418</v>
+        <v>472.478824028016</v>
       </c>
       <c r="R2">
-        <v>5400.550015330877</v>
+        <v>4252.309416252145</v>
       </c>
       <c r="S2">
-        <v>0.26856604288393</v>
+        <v>0.3040077736160434</v>
       </c>
       <c r="T2">
-        <v>0.30922571816182</v>
+        <v>0.3298874056059602</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H3">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I3">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J3">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>3.203747</v>
       </c>
       <c r="O3">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P3">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q3">
-        <v>210.5909568016069</v>
+        <v>166.4560391694218</v>
       </c>
       <c r="R3">
-        <v>1895.318611214462</v>
+        <v>1498.104352524796</v>
       </c>
       <c r="S3">
-        <v>0.09425303311202603</v>
+        <v>0.1071030643054602</v>
       </c>
       <c r="T3">
-        <v>0.1085225128985955</v>
+        <v>0.116220554480953</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H4">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I4">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J4">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,28 +682,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N4">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O4">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P4">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q4">
-        <v>4.453390771277778</v>
+        <v>6.630658807565778</v>
       </c>
       <c r="R4">
-        <v>40.0805169415</v>
+        <v>59.67592926809201</v>
       </c>
       <c r="S4">
-        <v>0.001993179546743162</v>
+        <v>0.004266374955200435</v>
       </c>
       <c r="T4">
-        <v>0.002294937848987404</v>
+        <v>0.004629563739678802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H5">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I5">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J5">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N5">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O5">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P5">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q5">
-        <v>273.5566765574183</v>
+        <v>67.32595204556065</v>
       </c>
       <c r="R5">
-        <v>1641.34005934451</v>
+        <v>403.955712273364</v>
       </c>
       <c r="S5">
-        <v>0.122434253042842</v>
+        <v>0.04331964047289821</v>
       </c>
       <c r="T5">
-        <v>0.09398016075358473</v>
+        <v>0.03133824208376139</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,46 +788,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>197.1981153333333</v>
+        <v>155.8700226666667</v>
       </c>
       <c r="H6">
-        <v>591.594346</v>
+        <v>467.610068</v>
       </c>
       <c r="I6">
-        <v>0.5013718116429122</v>
+        <v>0.4627663557222626</v>
       </c>
       <c r="J6">
-        <v>0.5302871392468994</v>
+        <v>0.4864916976605717</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N6">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O6">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P6">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q6">
-        <v>31.560375170408</v>
+        <v>6.324685953071111</v>
       </c>
       <c r="R6">
-        <v>284.043376533672</v>
+        <v>56.92217357764</v>
       </c>
       <c r="S6">
-        <v>0.01412530305737103</v>
+        <v>0.004069502372660411</v>
       </c>
       <c r="T6">
-        <v>0.01626380958391174</v>
+        <v>0.004415931750218233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>393.820518</v>
       </c>
       <c r="I7">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J7">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N7">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O7">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P7">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q7">
-        <v>399.4567897379454</v>
+        <v>397.920977233416</v>
       </c>
       <c r="R7">
-        <v>3595.111107641508</v>
+        <v>3581.288795100744</v>
       </c>
       <c r="S7">
-        <v>0.1787826723512322</v>
+        <v>0.2560349040249855</v>
       </c>
       <c r="T7">
-        <v>0.2058495543928169</v>
+        <v>0.2778306923823876</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>393.820518</v>
       </c>
       <c r="I8">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J8">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>3.203747</v>
       </c>
       <c r="O8">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P8">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q8">
         <v>140.1890336756607</v>
@@ -948,10 +948,10 @@
         <v>1261.701303080946</v>
       </c>
       <c r="S8">
-        <v>0.06274363265001394</v>
+        <v>0.09020204471765919</v>
       </c>
       <c r="T8">
-        <v>0.07224273276673028</v>
+        <v>0.09788078166002219</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>393.820518</v>
       </c>
       <c r="I9">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J9">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K9">
         <v>1</v>
@@ -992,28 +992,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N9">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O9">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P9">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q9">
-        <v>2.964593343833333</v>
+        <v>5.584331187404667</v>
       </c>
       <c r="R9">
-        <v>26.6813400945</v>
+        <v>50.258980686642</v>
       </c>
       <c r="S9">
-        <v>0.001326846692962473</v>
+        <v>0.003593134771510656</v>
       </c>
       <c r="T9">
-        <v>0.001527725237025888</v>
+        <v>0.003899011836662001</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>393.820518</v>
       </c>
       <c r="I10">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J10">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N10">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O10">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P10">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q10">
-        <v>182.104904809555</v>
+        <v>56.70181872436899</v>
       </c>
       <c r="R10">
-        <v>1092.62942885733</v>
+        <v>340.2109123462139</v>
       </c>
       <c r="S10">
-        <v>0.08150368792448721</v>
+        <v>0.03648373809310397</v>
       </c>
       <c r="T10">
-        <v>0.06256198329133458</v>
+        <v>0.02639302182568984</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,40 +1104,40 @@
         <v>393.820518</v>
       </c>
       <c r="I11">
-        <v>0.3337599622221713</v>
+        <v>0.3897411505765819</v>
       </c>
       <c r="J11">
-        <v>0.3530087082119477</v>
+        <v>0.4097225989911443</v>
       </c>
       <c r="K11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N11">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O11">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P11">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q11">
-        <v>21.009536994264</v>
+        <v>5.326641295126668</v>
       </c>
       <c r="R11">
-        <v>189.085832948376</v>
+        <v>47.93977165614</v>
       </c>
       <c r="S11">
-        <v>0.009403122603475398</v>
+        <v>0.003427328969322688</v>
       </c>
       <c r="T11">
-        <v>0.01082671252404005</v>
+        <v>0.003719091286382634</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H12">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I12">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J12">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N12">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O12">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P12">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q12">
-        <v>0.8473601164026667</v>
+        <v>0.746051845968</v>
       </c>
       <c r="R12">
-        <v>7.626241047624001</v>
+        <v>6.714466613712001</v>
       </c>
       <c r="S12">
-        <v>0.000379248294048785</v>
+        <v>0.0004800332822565238</v>
       </c>
       <c r="T12">
-        <v>0.000436664757873222</v>
+        <v>0.0005208976474664768</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H13">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I13">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J13">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>3.203747</v>
       </c>
       <c r="O13">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P13">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q13">
-        <v>0.2973803398653334</v>
+        <v>0.2628368277675556</v>
       </c>
       <c r="R13">
-        <v>2.676423058788</v>
+        <v>2.365531449908</v>
       </c>
       <c r="S13">
-        <v>0.0001330968786404172</v>
+        <v>0.0001691175027754895</v>
       </c>
       <c r="T13">
-        <v>0.0001532471396633975</v>
+        <v>0.0001835141699489122</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H14">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I14">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J14">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1302,28 +1302,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N14">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O14">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P14">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q14">
-        <v>0.006288735666666666</v>
+        <v>0.01046991947955556</v>
       </c>
       <c r="R14">
-        <v>0.05659862100000001</v>
+        <v>0.09422927531600001</v>
       </c>
       <c r="S14">
-        <v>2.814614739518528E-06</v>
+        <v>6.736676331403571E-06</v>
       </c>
       <c r="T14">
-        <v>3.240734587405054E-06</v>
+        <v>7.310157404660925E-06</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H15">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I15">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J15">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N15">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O15">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P15">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q15">
-        <v>0.3862956827899999</v>
+        <v>0.1063087872953333</v>
       </c>
       <c r="R15">
-        <v>2.31777409674</v>
+        <v>0.637852723772</v>
       </c>
       <c r="S15">
-        <v>0.000172892228298954</v>
+        <v>6.840242588217971E-05</v>
       </c>
       <c r="T15">
-        <v>0.0001327115492989984</v>
+        <v>4.948360046416792E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,46 +1408,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.278468</v>
+        <v>0.2461213333333333</v>
       </c>
       <c r="H16">
-        <v>0.835404</v>
+        <v>0.738364</v>
       </c>
       <c r="I16">
-        <v>0.0007079986814710624</v>
+        <v>0.0007307156985262189</v>
       </c>
       <c r="J16">
-        <v>0.0007488306814808822</v>
+        <v>0.0007681784042585035</v>
       </c>
       <c r="K16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N16">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O16">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P16">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q16">
-        <v>0.044567132592</v>
+        <v>0.009986783302222224</v>
       </c>
       <c r="R16">
-        <v>0.401104193328</v>
+        <v>0.08988104972000001</v>
       </c>
       <c r="S16">
-        <v>1.99466657433876E-05</v>
+        <v>6.425811280622453E-06</v>
       </c>
       <c r="T16">
-        <v>2.296650005785924E-05</v>
+        <v>6.972828974285761E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H17">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I17">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J17">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N17">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O17">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P17">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q17">
-        <v>195.78248977602</v>
+        <v>149.375328551514</v>
       </c>
       <c r="R17">
-        <v>1174.69493865612</v>
+        <v>896.2519713090841</v>
       </c>
       <c r="S17">
-        <v>0.08762528919510237</v>
+        <v>0.096112796503697</v>
       </c>
       <c r="T17">
-        <v>0.06726090583289206</v>
+        <v>0.06952980337093365</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H18">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I18">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J18">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>3.203747</v>
       </c>
       <c r="O18">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P18">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q18">
-        <v>68.70970467249001</v>
+        <v>52.62548134610517</v>
       </c>
       <c r="R18">
-        <v>412.25822803494</v>
+        <v>315.752888076631</v>
       </c>
       <c r="S18">
-        <v>0.03075202358150032</v>
+        <v>0.03386089408856428</v>
       </c>
       <c r="T18">
-        <v>0.02360515989488772</v>
+        <v>0.02449560717808605</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H19">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I19">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J19">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K19">
         <v>1</v>
@@ -1612,28 +1612,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M19">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N19">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O19">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P19">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q19">
-        <v>1.4530118925</v>
+        <v>2.096298897481167</v>
       </c>
       <c r="R19">
-        <v>8.718071355000001</v>
+        <v>12.577793384887</v>
       </c>
       <c r="S19">
-        <v>0.0006503165192652999</v>
+        <v>0.001348824811287685</v>
       </c>
       <c r="T19">
-        <v>0.0004991809849150521</v>
+        <v>0.0009757652188079033</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H20">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I20">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J20">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N20">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O20">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P20">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q20">
-        <v>89.25358782217499</v>
+        <v>21.28526337140725</v>
       </c>
       <c r="R20">
-        <v>357.0143512887</v>
+        <v>85.14105348562899</v>
       </c>
       <c r="S20">
-        <v>0.0399467360618706</v>
+        <v>0.013695609621626</v>
       </c>
       <c r="T20">
-        <v>0.02044199551118512</v>
+        <v>0.0066051076004924</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,46 +1718,46 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>64.34001000000001</v>
+        <v>49.2786865</v>
       </c>
       <c r="H21">
-        <v>128.68002</v>
+        <v>98.557373</v>
       </c>
       <c r="I21">
-        <v>0.1635830409448661</v>
+        <v>0.1463047080910041</v>
       </c>
       <c r="J21">
-        <v>0.1153448476061565</v>
+        <v>0.1025370217386683</v>
       </c>
       <c r="K21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L21">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M21">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N21">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O21">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P21">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q21">
-        <v>10.29723256044</v>
+        <v>1.999564835881667</v>
       </c>
       <c r="R21">
-        <v>61.78339536264001</v>
+        <v>11.99738901529</v>
       </c>
       <c r="S21">
-        <v>0.004608675587127482</v>
+        <v>0.001286583065829147</v>
       </c>
       <c r="T21">
-        <v>0.003537605382276513</v>
+        <v>0.0009307383703483499</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H22">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I22">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J22">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.042935333333334</v>
+        <v>3.031236</v>
       </c>
       <c r="N22">
-        <v>9.128806000000001</v>
+        <v>9.093708000000001</v>
       </c>
       <c r="O22">
-        <v>0.5356624298519768</v>
+        <v>0.6569357730026921</v>
       </c>
       <c r="P22">
-        <v>0.5831288282815508</v>
+        <v>0.6780946256479073</v>
       </c>
       <c r="Q22">
-        <v>0.6907990648791111</v>
+        <v>0.466662823848</v>
       </c>
       <c r="R22">
-        <v>6.217191583912</v>
+        <v>4.199965414632</v>
       </c>
       <c r="S22">
-        <v>0.0003091771276633977</v>
+        <v>0.0003002655757096832</v>
       </c>
       <c r="T22">
-        <v>0.0003559851361485863</v>
+        <v>0.0003258266411593498</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H23">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I23">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J23">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>3.203747</v>
       </c>
       <c r="O23">
-        <v>0.1879902916822836</v>
+        <v>0.2314409052885859</v>
       </c>
       <c r="P23">
-        <v>0.2046485853922773</v>
+        <v>0.2388952474211406</v>
       </c>
       <c r="Q23">
-        <v>0.2424353668715556</v>
+        <v>0.1644070407708889</v>
       </c>
       <c r="R23">
-        <v>2.181918301844</v>
+        <v>1.479663366938</v>
       </c>
       <c r="S23">
-        <v>0.0001085054601029124</v>
+        <v>0.0001057846741266786</v>
       </c>
       <c r="T23">
-        <v>0.000124932692400367</v>
+        <v>0.0001147899321304734</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H24">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I24">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J24">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K24">
         <v>1</v>
@@ -1922,28 +1922,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M24">
-        <v>0.02258333333333333</v>
+        <v>0.04253966666666667</v>
       </c>
       <c r="N24">
-        <v>0.06775</v>
+        <v>0.127619</v>
       </c>
       <c r="O24">
-        <v>0.003975451950942043</v>
+        <v>0.009219285072143351</v>
       </c>
       <c r="P24">
-        <v>0.004327726771285868</v>
+        <v>0.009516223528461688</v>
       </c>
       <c r="Q24">
-        <v>0.005126808111111111</v>
+        <v>0.006549038402888889</v>
       </c>
       <c r="R24">
-        <v>0.046141273</v>
+        <v>0.058941345626</v>
       </c>
       <c r="S24">
-        <v>2.294577231589234E-06</v>
+        <v>4.213857813170828E-06</v>
       </c>
       <c r="T24">
-        <v>2.64196577012007E-06</v>
+        <v>4.572575908322002E-06</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H25">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I25">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J25">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.3872175</v>
+        <v>0.4319364999999999</v>
       </c>
       <c r="N25">
-        <v>2.774435</v>
+        <v>0.8638729999999999</v>
       </c>
       <c r="O25">
-        <v>0.2441985173471266</v>
+        <v>0.09361017700884301</v>
       </c>
       <c r="P25">
-        <v>0.1772250424308857</v>
+        <v>0.06441680759293508</v>
       </c>
       <c r="Q25">
-        <v>0.3149224176033333</v>
+        <v>0.06649720009033332</v>
       </c>
       <c r="R25">
-        <v>1.88953450562</v>
+        <v>0.3989832005419999</v>
       </c>
       <c r="S25">
-        <v>0.0001409480896278438</v>
+        <v>4.278639533263841E-05</v>
       </c>
       <c r="T25">
-        <v>0.0001081913254822594</v>
+        <v>3.09524825272871E-05</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,46 +2028,46 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>0.2270173333333333</v>
+        <v>0.1539513333333333</v>
       </c>
       <c r="H26">
-        <v>0.681052</v>
+        <v>0.461854</v>
       </c>
       <c r="I26">
-        <v>0.0005771865085793579</v>
+        <v>0.0004570699116250634</v>
       </c>
       <c r="J26">
-        <v>0.0006104742535155658</v>
+        <v>0.0004805032053572586</v>
       </c>
       <c r="K26">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M26">
-        <v>0.160044</v>
+        <v>0.04057666666666667</v>
       </c>
       <c r="N26">
-        <v>0.480132</v>
+        <v>0.12173</v>
       </c>
       <c r="O26">
-        <v>0.02817330916767092</v>
+        <v>0.008793859627735762</v>
       </c>
       <c r="P26">
-        <v>0.03066981712400039</v>
+        <v>0.009077095809555328</v>
       </c>
       <c r="Q26">
-        <v>0.036332762096</v>
+        <v>0.006246831935555556</v>
       </c>
       <c r="R26">
-        <v>0.326994858864</v>
+        <v>0.05622148742</v>
       </c>
       <c r="S26">
-        <v>1.626125395361479E-05</v>
+        <v>4.019408642892397E-06</v>
       </c>
       <c r="T26">
-        <v>1.872313371423306E-05</v>
+        <v>4.361573631826274E-06</v>
       </c>
     </row>
   </sheetData>
